--- a/biology/Médecine/Edward_Howard_Lambert/Edward_Howard_Lambert.xlsx
+++ b/biology/Médecine/Edward_Howard_Lambert/Edward_Howard_Lambert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Edward Howard Lambert (30 août 1915 - 27 juillet 2003[1]) est un médecin et neurophysiologiste américain, originaire du Minnesota, spécialisé dans l’étude des affections neuromusculaires. Il est considéré comme l’un des fondateurs de l’électroneuromyographie (ENMG) aux États-Unis. Diplômé MD de l’Université de l’Illinois en 1939 et docteur en physiologie en 1944, il effectue l’essentiel de sa carrière à la Mayo Clinic, Rochester, Minnesota, à partir de 1943.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Edward Howard Lambert (30 août 1915 - 27 juillet 2003) est un médecin et neurophysiologiste américain, originaire du Minnesota, spécialisé dans l’étude des affections neuromusculaires. Il est considéré comme l’un des fondateurs de l’électroneuromyographie (ENMG) aux États-Unis. Diplômé MD de l’Université de l’Illinois en 1939 et docteur en physiologie en 1944, il effectue l’essentiel de sa carrière à la Mayo Clinic, Rochester, Minnesota, à partir de 1943.
 Il fut l’un des inventeurs de la combinaison anti-g des pilotes d’avions. En 1945, il n’hésita pas à participer à une dangereuse expérience au cours de laquelle il perdit connaissance après avoir subi une accélération de 7 g dans un Douglas Dauntless A-24, apportant ainsi la preuve de l’utilité de la combinaison anti-g.
 En 1956, son collègue de la Mayo Clinic Lee M. Eaton lui propose d’entreprendre  une étude sur les réflexes des patients atteints d’hypothyroïdie, ce qui l’amène à s’intéresser aux affections neuromusculaires en général et à la myasthénie en particulier. C’est la même année  que les deux médecins, en collaboration avec E.D. Rooke, parviennent à identifier dans une série de patients myasthéniques, un sous-groupe dans lequel la stimulation répétitive à haute fréquence provoque une augmentation de la réponse motrice au lieu de l’épuisement attendu. Tous les patients sont atteints d’un cancer bronchique à petites cellules. Cette affection est depuis connue sous le nom de Syndrome myasthénique de Lambert-Eaton.
 </t>
